--- a/ol-handback/OpenLocalizationTestOrg/AX-Docs-Sandbox/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/AX-Docs-Sandbox/master/handback-status.xlsx
@@ -65,10 +65,10 @@
     <t>.md</t>
   </si>
   <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-03-20 16:35:30</t>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-03-21 13:53:59</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -140,7 +140,7 @@
     <t/>
   </si>
   <si>
-    <t>2017-03-21 20:30:00</t>
+    <t>2017-03-22 19:21:46</t>
   </si>
   <si>
     <t>True</t>
@@ -851,7 +851,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
     <col min="6" max="6" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1833,7 +1833,7 @@
   <cols>
     <col min="1" max="1" width="20.1869703020368" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="25.8527047293527" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/AX-Docs-Sandbox/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/AX-Docs-Sandbox/master/handback-status.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>File Name</t>
   </si>
@@ -65,10 +65,22 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-03-21 13:53:59</t>
+  </si>
+  <si>
+    <t>action-search.md</t>
+  </si>
+  <si>
+    <t>core\get-started\action-search.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-03-21 13:53:59</t>
+    <t>2017-03-20 16:35:30</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -144,6 +156,15 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>core\get-started</t>
+  </si>
+  <si>
+    <t>action-search.78e375d5f16ae67b9c9004fbf99402dab448d8bf.ar-sa.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-24 13:34:14</t>
   </si>
 </sst>
 </file>
@@ -200,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ar-sa" displayName="ar_sa" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ar-sa" displayName="ar_sa" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -643,8 +664,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Overview" displayName="Overview" ref="A1:F2" headerRowCount="1">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Overview" displayName="Overview" ref="A1:F3" headerRowCount="1">
+  <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -841,7 +862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -851,7 +872,7 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
     <col min="6" max="6" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -892,9 +913,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="financials\accounts-payable\accounts-payable.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="core\get-started\action-search.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -933,58 +972,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1025,58 +1064,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1117,58 +1156,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1209,58 +1248,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1301,58 +1340,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1393,58 +1432,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1485,58 +1524,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1577,58 +1616,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1669,58 +1708,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1761,58 +1800,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1833,7 +1872,7 @@
   <cols>
     <col min="1" max="1" width="20.1869703020368" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="25.8527047293527" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -1853,58 +1892,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -1918,55 +1957,113 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>33</v>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="accounts-payable.md" r:id="rId2"/>
     <hyperlink ref="J2" display="accounts-payable.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="action-search.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="action-search.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2005,58 +2102,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2097,58 +2194,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2189,58 +2286,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2281,58 +2378,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2373,58 +2470,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2465,58 +2562,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2557,58 +2654,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2649,58 +2746,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2741,58 +2838,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2833,58 +2930,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2925,58 +3022,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3017,58 +3114,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3109,58 +3206,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/AX-Docs-Sandbox/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/AX-Docs-Sandbox/master/handback-status.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -53,36 +53,51 @@
     <t>ar-sa</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>action-search.md</t>
+  </si>
+  <si>
+    <t>core\get-started\action-search.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>2017-03-20 16:35:30</t>
+  </si>
+  <si>
+    <t>deprecated-features.md</t>
+  </si>
+  <si>
+    <t>core\get-started\deprecated-features.md</t>
+  </si>
+  <si>
+    <t>2017-03-24 13:29:23</t>
+  </si>
+  <si>
+    <t>dev-itpro\migration-upgrade\deprecated-features.md</t>
+  </si>
+  <si>
+    <t>2017-03-20 16:43:29</t>
+  </si>
+  <si>
     <t>accounts-payable.md</t>
   </si>
   <si>
     <t>financials\accounts-payable\accounts-payable.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-03-21 13:53:59</t>
-  </si>
-  <si>
-    <t>action-search.md</t>
-  </si>
-  <si>
-    <t>core\get-started\action-search.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-03-20 16:35:30</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -137,34 +152,58 @@
     <t>Error Detail</t>
   </si>
   <si>
+    <t>core\get-started</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>action-search.78e375d5f16ae67b9c9004fbf99402dab448d8bf.ar-sa.xlf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-03-24 13:34:14</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>deprecated-features.75823998cbb2f2052bb1254d9b32042b7527a698.ar-sa.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-24 13:27:35</t>
+  </si>
+  <si>
+    <t>2017-03-24 16:41:17</t>
+  </si>
+  <si>
+    <t>dev-itpro\migration-upgrade</t>
+  </si>
+  <si>
+    <t>deprecated-features.8ffe62975e3930db6bc95bc2615948daf57a9cdd.ar-sa.xlf</t>
+  </si>
+  <si>
     <t>financials\accounts-payable</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>accounts-payable.abd99e977ea528e10b6bead4d6b395a0698f53ad.ar-sa.xlf</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-03-22 19:21:46</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>core\get-started</t>
-  </si>
-  <si>
-    <t>action-search.78e375d5f16ae67b9c9004fbf99402dab448d8bf.ar-sa.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-24 13:34:14</t>
+    <t>deprecated-features.75823998cbb2f2052bb1254d9b32042b7527a698.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-24 16:42:10</t>
+  </si>
+  <si>
+    <t>deprecated-features.8ffe62975e3930db6bc95bc2615948daf57a9cdd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>accounts-payable.abd99e977ea528e10b6bead4d6b395a0698f53ad.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -221,8 +260,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ar-sa" displayName="ar_sa" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ar-sa" displayName="ar_sa" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -664,15 +703,16 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Overview" displayName="Overview" ref="A1:F3" headerRowCount="1">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
     <tableColumn id="5" name="ar-sa"/>
-    <tableColumn id="6" name="Latest HO Xliff Generate Date"/>
+    <tableColumn id="6" name="de-de"/>
+    <tableColumn id="7" name="Latest HO Xliff Generate Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,7 +875,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="de-de" displayName="de_de" ref="A1:R1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -862,18 +903,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.1869703020368" customWidth="1"/>
+    <col min="1" max="1" width="22.814200265067" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="29.5073743547712" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -895,45 +937,96 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="financials\accounts-payable\accounts-payable.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="core\get-started\action-search.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="core\get-started\action-search.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="core\get-started\deprecated-features.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="dev-itpro\migration-upgrade\deprecated-features.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="financials\accounts-payable\accounts-payable.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -944,89 +1037,265 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6706946236747" customWidth="1"/>
-    <col min="2" max="2" width="13.4869144984654" customWidth="1"/>
-    <col min="3" max="3" width="6.86154392787388" customWidth="1"/>
-    <col min="4" max="4" width="11.9073017665318" customWidth="1"/>
-    <col min="5" max="5" width="7.86005565098354" customWidth="1"/>
-    <col min="6" max="6" width="17.306018284389" customWidth="1"/>
-    <col min="7" max="7" width="22.7937404087612" customWidth="1"/>
-    <col min="8" max="8" width="27.9131600516183" customWidth="1"/>
-    <col min="9" max="9" width="24.962637765067" customWidth="1"/>
-    <col min="10" max="10" width="10.6069859095982" customWidth="1"/>
-    <col min="11" max="11" width="24.398930140904" customWidth="1"/>
-    <col min="12" max="12" width="29.8467516217913" customWidth="1"/>
-    <col min="13" max="13" width="26.5678274972098" customWidth="1"/>
-    <col min="14" max="14" width="17.048205784389" customWidth="1"/>
-    <col min="15" max="15" width="14.4148352486747" customWidth="1"/>
-    <col min="16" max="16" width="17.4799390520368" customWidth="1"/>
-    <col min="17" max="17" width="13.6004747663225" customWidth="1"/>
-    <col min="18" max="18" width="11.4970528738839" customWidth="1"/>
+    <col min="1" max="1" width="22.814200265067" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="26.7785797119141" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
+    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
+    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
+    <col min="10" max="10" width="22.814200265067" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
+    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
+    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
+    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
+    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>32</v>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="deprecated-features.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="deprecated-features.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="deprecated-features.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="deprecated-features.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="accounts-payable.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="accounts-payable.md" r:id="rId7"/>
+  </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>
@@ -1064,58 +1333,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1156,58 +1425,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1248,58 +1517,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1340,58 +1609,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1432,58 +1701,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1524,58 +1793,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1616,58 +1885,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1708,58 +1977,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1800,58 +2069,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1864,22 +2133,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.1869703020368" customWidth="1"/>
+    <col min="1" max="1" width="22.814200265067" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
-    <col min="4" max="4" width="25.8527047293527" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="26.7785797119141" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
     <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="20.1869703020368" customWidth="1"/>
+    <col min="10" max="10" width="22.814200265067" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
     <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
@@ -1892,178 +2161,294 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+      <c r="F5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="accounts-payable.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="accounts-payable.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="action-search.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="action-search.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="action-search.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="action-search.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="deprecated-features.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="deprecated-features.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="deprecated-features.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="deprecated-features.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="accounts-payable.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="accounts-payable.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2102,58 +2487,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2194,58 +2579,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2286,58 +2671,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2378,58 +2763,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2470,58 +2855,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2562,58 +2947,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2654,58 +3039,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2746,58 +3131,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2838,58 +3223,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2930,58 +3315,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3022,58 +3407,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3114,58 +3499,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3206,58 +3591,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/AX-Docs-Sandbox/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/AX-Docs-Sandbox/master/handback-status.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>File Name</t>
   </si>
@@ -68,34 +68,46 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>2017-03-20 16:35:30</t>
+  </si>
+  <si>
+    <t>accounts-payable.md</t>
+  </si>
+  <si>
+    <t>financials\accounts-payable\accounts-payable.md</t>
+  </si>
+  <si>
+    <t>2017-03-24 13:29:23</t>
+  </si>
+  <si>
+    <t>deprecated-features.md</t>
+  </si>
+  <si>
+    <t>core\get-started\deprecated-features.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>N\A</t>
-  </si>
-  <si>
-    <t>2017-03-20 16:35:30</t>
-  </si>
-  <si>
-    <t>deprecated-features.md</t>
-  </si>
-  <si>
-    <t>core\get-started\deprecated-features.md</t>
-  </si>
-  <si>
-    <t>2017-03-24 13:29:23</t>
-  </si>
-  <si>
     <t>dev-itpro\migration-upgrade\deprecated-features.md</t>
   </si>
   <si>
     <t>2017-03-20 16:43:29</t>
   </si>
   <si>
-    <t>accounts-payable.md</t>
-  </si>
-  <si>
-    <t>financials\accounts-payable\accounts-payable.md</t>
+    <t>adjust-hand-inventory-cost-values.md</t>
+  </si>
+  <si>
+    <t>scm\cost-management\adjust-hand-inventory-cost-values.md</t>
+  </si>
+  <si>
+    <t>2017-03-30 15:14:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -173,37 +185,46 @@
     <t>True</t>
   </si>
   <si>
+    <t>financials\accounts-payable</t>
+  </si>
+  <si>
+    <t>accounts-payable.abd99e977ea528e10b6bead4d6b395a0698f53ad.ar-sa.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-24 13:27:35</t>
+  </si>
+  <si>
+    <t>2017-03-24 16:41:17</t>
+  </si>
+  <si>
     <t>deprecated-features.75823998cbb2f2052bb1254d9b32042b7527a698.ar-sa.xlf</t>
   </si>
   <si>
-    <t>2017-03-24 13:27:35</t>
-  </si>
-  <si>
-    <t>2017-03-24 16:41:17</t>
-  </si>
-  <si>
     <t>dev-itpro\migration-upgrade</t>
   </si>
   <si>
     <t>deprecated-features.8ffe62975e3930db6bc95bc2615948daf57a9cdd.ar-sa.xlf</t>
   </si>
   <si>
-    <t>financials\accounts-payable</t>
-  </si>
-  <si>
-    <t>accounts-payable.abd99e977ea528e10b6bead4d6b395a0698f53ad.ar-sa.xlf</t>
+    <t>accounts-payable.abd99e977ea528e10b6bead4d6b395a0698f53ad.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-24 16:42:10</t>
   </si>
   <si>
     <t>deprecated-features.75823998cbb2f2052bb1254d9b32042b7527a698.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-03-24 16:42:10</t>
-  </si>
-  <si>
     <t>deprecated-features.8ffe62975e3930db6bc95bc2615948daf57a9cdd.de-de.xlf</t>
   </si>
   <si>
-    <t>accounts-payable.abd99e977ea528e10b6bead4d6b395a0698f53ad.de-de.xlf</t>
+    <t>scm\cost-management</t>
+  </si>
+  <si>
+    <t>adjust-hand-inventory-cost-values.f70237871b7b268574daf4557c82797bc0759c16.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-30 18:30:03</t>
   </si>
 </sst>
 </file>
@@ -703,8 +724,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -875,8 +896,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -903,18 +924,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.814200265067" customWidth="1"/>
+    <col min="1" max="1" width="34.8515886579241" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -983,27 +1004,27 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1012,21 +1033,42 @@
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="core\get-started\action-search.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="core\get-started\deprecated-features.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="dev-itpro\migration-upgrade\deprecated-features.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="financials\accounts-payable\accounts-payable.md" r:id="rId5"/>
+    <hyperlink ref="B3" display="financials\accounts-payable\accounts-payable.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="core\get-started\deprecated-features.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="dev-itpro\migration-upgrade\deprecated-features.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="scm\cost-management\adjust-hand-inventory-cost-values.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1037,22 +1079,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.814200265067" customWidth="1"/>
+    <col min="1" max="1" width="34.8515886579241" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="26.7785797119141" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
     <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="22.814200265067" customWidth="1"/>
+    <col min="10" max="10" width="34.8515886579241" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
     <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
@@ -1065,58 +1107,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -1130,171 +1172,229 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="D5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="deprecated-features.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="deprecated-features.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="accounts-payable.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="accounts-payable.md" r:id="rId3"/>
     <hyperlink ref="A3" display="deprecated-features.md" r:id="rId4"/>
     <hyperlink ref="J3" display="deprecated-features.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="accounts-payable.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="accounts-payable.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="deprecated-features.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="deprecated-features.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="adjust-hand-inventory-cost-values.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="adjust-hand-inventory-cost-values.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1333,58 +1433,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1425,58 +1525,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1517,58 +1617,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1609,58 +1709,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1701,58 +1801,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1793,58 +1893,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1885,58 +1985,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1977,58 +2077,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2069,58 +2169,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2241,7 @@
   <cols>
     <col min="1" max="1" width="22.814200265067" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="26.7785797119141" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -2161,58 +2261,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -2226,49 +2326,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2282,173 +2382,173 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="action-search.md" r:id="rId2"/>
     <hyperlink ref="J2" display="action-search.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="deprecated-features.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="deprecated-features.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="accounts-payable.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="accounts-payable.md" r:id="rId5"/>
     <hyperlink ref="A4" display="deprecated-features.md" r:id="rId6"/>
     <hyperlink ref="J4" display="deprecated-features.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="accounts-payable.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="accounts-payable.md" r:id="rId9"/>
+    <hyperlink ref="A5" display="deprecated-features.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="deprecated-features.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2487,58 +2587,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2579,58 +2679,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2671,58 +2771,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2763,58 +2863,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2855,58 +2955,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2947,58 +3047,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3039,58 +3139,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3131,58 +3231,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3223,58 +3323,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3315,58 +3415,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3407,58 +3507,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3499,58 +3599,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3591,58 +3691,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
